--- a/Labs/lab5/Ronald_Kameron_ Ex2.xlsx
+++ b/Labs/lab5/Ronald_Kameron_ Ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamer\University\Winter 2023\COMP 2160\COMP-2160\Labs\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A3CDF-512A-4AF9-8CF3-C21F0975A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C122E9-4CB0-4767-823A-80A8DA0F7D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90BC71E8-339C-4D99-BD4F-F8BFD7AF3BBC}"/>
   </bookViews>
@@ -50,23 +50,30 @@
     <t>time 2</t>
   </si>
   <si>
-    <t>Small Cache</t>
-  </si>
-  <si>
     <t>Large Cache</t>
   </si>
   <si>
     <t>time 3</t>
+  </si>
+  <si>
+    <t>Small Cache (40)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,31 +419,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F30BAB-DDE2-4989-BE46-9F75C7F9B73E}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" customWidth="1"/>
+    <col min="12" max="12" width="1.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -449,106 +464,190 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">AVERAGE(C3:E3)</f>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>1E-3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.66933333333333334</v>
+      </c>
+      <c r="C5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>70</v>
       </c>
-      <c r="B3">
-        <f>AVERAGE(C3:E3)</f>
-        <v>3.7333333333333329E-2</v>
-      </c>
-      <c r="C3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B6">
+        <f>AVERAGE(C6:E6)</f>
+        <v>6.0333333333333329E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>72</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B9" si="0">AVERAGE(C4:E4)</f>
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D4">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B7">
+        <f t="shared" ref="B7:B12" si="1">AVERAGE(C7:E7)</f>
+        <v>0.157</v>
+      </c>
+      <c r="C7">
+        <v>0.156</v>
+      </c>
+      <c r="D7">
+        <v>0.16</v>
+      </c>
+      <c r="E7">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>74</v>
       </c>
-      <c r="B5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.40466666666666667</v>
+      </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>76</v>
       </c>
-      <c r="B6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1.038</v>
+      </c>
+      <c r="C9">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.012</v>
+      </c>
+      <c r="E9">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>78</v>
       </c>
-      <c r="B7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2.8933333333333331</v>
+      </c>
+      <c r="C10">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="D10">
+        <v>3.105</v>
+      </c>
+      <c r="E10">
+        <v>2.8679999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>80</v>
       </c>
-      <c r="B8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>82</v>
-      </c>
-      <c r="B9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>7.1433333333333335</v>
+      </c>
+      <c r="C11">
+        <v>7.2670000000000003</v>
+      </c>
+      <c r="D11">
+        <v>6.8940000000000001</v>
+      </c>
+      <c r="E11">
+        <v>7.2690000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Labs/lab5/Ronald_Kameron_ Ex2.xlsx
+++ b/Labs/lab5/Ronald_Kameron_ Ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamer\University\Winter 2023\COMP 2160\COMP-2160\Labs\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C122E9-4CB0-4767-823A-80A8DA0F7D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0C292F-3E8C-4439-83AC-6CD72973BB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90BC71E8-339C-4D99-BD4F-F8BFD7AF3BBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>argument</t>
   </si>
@@ -50,13 +50,16 @@
     <t>time 2</t>
   </si>
   <si>
-    <t>Large Cache</t>
-  </si>
-  <si>
     <t>time 3</t>
   </si>
   <si>
     <t>Small Cache (40)</t>
+  </si>
+  <si>
+    <t>Large Cache (100)</t>
+  </si>
+  <si>
+    <t>The cache allows the the algorithm to avoid unnecessary recursion, meaning it only needs to calculate the fibonacci number for each sequence number once (afterwards it can just look it up). As a result, the algorithm can run in near linear time (likely O(nlogn) or something similar in reality) as long as the sequence number is within the cache size. This can be seen in the second graph where the trend appears to be constant within the uncertainty (the operating system and other processes cause small variance in times between test). Unfortunately, using a datatype of long long only allows us to calculate fibonacci numbers up until the 92nd term. However, were we to go far past this value, eventually the linear nature would become apparent. Once the sequence number exceeds the cache size the algorithm runtime starts to grow exponentially again. This can be seen in the first graph, where after the cache size of 40 the graph appears very similar to the one in Part 1. Interesting, the runtime starts to grow significantly around 80, which is roughly the same as Part 1's plus the cache size.</t>
   </si>
 </sst>
 </file>
@@ -99,12 +102,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,6 +129,2234 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Fibonacci Calculation Times (Cache: 40)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8933333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1433333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC0A-4467-A341-87B01C6731E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1328126447"/>
+        <c:axId val="1322758639"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>argument</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>80</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>80</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-CC0A-4467-A341-87B01C6731E0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1328126447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Sequence Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1322758639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1322758639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328126447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Fibonacci</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Calculation Times (Cache: 100)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.6666666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6666666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6666666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6666666666666664E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2545-48C6-AA42-B90637F52A41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1473561583"/>
+        <c:axId val="1401203615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1473561583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Sequence Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1401203615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1401203615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473561583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C63E8DC-C484-6991-D526-A9A803B8A713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DEC217-DB25-7003-1D02-4412F0BEF42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F30BAB-DDE2-4989-BE46-9F75C7F9B73E}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,26 +2668,29 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -464,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -479,10 +2719,22 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>40</v>
       </c>
@@ -499,8 +2751,34 @@
       <c r="E3">
         <v>1E-3</v>
       </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(I3:K3)</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1E-3</v>
+      </c>
+      <c r="K3">
+        <v>1E-3</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
@@ -517,26 +2795,78 @@
       <c r="E4">
         <v>2E-3</v>
       </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H3:H11" si="1">AVERAGE(I4:K4)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I4">
+        <v>2E-3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1E-3</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.66933333333333334</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="C5">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>2E-3</v>
       </c>
       <c r="E5">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(I5:K5)</f>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="I5">
+        <v>1E-3</v>
+      </c>
+      <c r="J5">
+        <v>2E-3</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70</v>
       </c>
@@ -550,16 +2880,42 @@
       <c r="D6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>6.2E-2</v>
       </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(I6:K6)</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="I6">
+        <v>1E-3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1E-3</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>72</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B12" si="1">AVERAGE(C7:E7)</f>
+        <f t="shared" ref="B7:B11" si="2">AVERAGE(C7:E7)</f>
         <v>0.157</v>
       </c>
       <c r="C7">
@@ -571,13 +2927,39 @@
       <c r="E7">
         <v>0.155</v>
       </c>
+      <c r="G7">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>74</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40466666666666667</v>
       </c>
       <c r="C8">
@@ -589,13 +2971,39 @@
       <c r="E8">
         <v>0.40600000000000003</v>
       </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(I8:K8)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I8">
+        <v>2E-3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1E-3</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>76</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.038</v>
       </c>
       <c r="C9">
@@ -607,13 +3015,39 @@
       <c r="E9">
         <v>1.0369999999999999</v>
       </c>
+      <c r="G9">
+        <v>85</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="I9">
+        <v>2E-3</v>
+      </c>
+      <c r="J9">
+        <v>1E-3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>78</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8933333333333331</v>
       </c>
       <c r="C10">
@@ -625,13 +3059,39 @@
       <c r="E10">
         <v>2.8679999999999999</v>
       </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="I10">
+        <v>1E-3</v>
+      </c>
+      <c r="J10">
+        <v>1E-3</v>
+      </c>
+      <c r="K10">
+        <v>1E-3</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>80</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1433333333333335</v>
       </c>
       <c r="C11">
@@ -643,12 +3103,88 @@
       <c r="E11">
         <v>7.2690000000000001</v>
       </c>
+      <c r="G11">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1E-3</v>
+      </c>
+      <c r="K11">
+        <v>1E-3</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M2:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>